--- a/case/inter_v2.xlsx
+++ b/case/inter_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\autotest\autotest\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF3557-87AC-4985-B37B-4F20D7DE858C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E48EB-FC99-40C0-A477-D94A4DAFD5EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置信息" sheetId="2" r:id="rId1"/>
@@ -142,41 +142,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>getToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/account/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>{"$.data.userKey":"token"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appId":"6013","password":"Jq+wjeuzTVBCAaFI/R7vVA==","methodName":"login","userKey":"$&lt;token&gt;","timestamp":"Sat, 11 Jul 2020 00:56:10 GMT"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"$.meta.msg":"issued tokenKey success"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/account/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>{"$.data.userKey":"token"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"appId":"443","password":"w7qnz+LvO8GyNSi8qA/B5Q==","methodName":"login","userKey":"$&lt;token&gt;","timestamp":"2020-07-05T03:15:58.272+0000"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +525,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFB6A06-E728-4CD8-95CC-1D273CEB2F72}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
     <col min="1" max="1" width="20.77734375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="119.77734375" customWidth="1"/>
+    <col min="7" max="7" width="146.109375" customWidth="1"/>
     <col min="8" max="8" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -627,7 +627,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -645,32 +645,33 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -678,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -713,16 +714,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/case/inter_v2.xlsx
+++ b/case/inter_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\autotest\autotest\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E48EB-FC99-40C0-A477-D94A4DAFD5EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECB9A56-9E59-4087-A15E-4A65AA0D97F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,11 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
-  <si>
-    <t>add_fonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,23 +110,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>di</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://47.110.55.246</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/account/login</t>
+  </si>
+  <si>
+    <t>http://demo.jeecms.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cmsadmin/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"identity":"test","desStr":"EwSSctvjsSxmeuCGIByvWA==","captcha":"","sessionId":"","codeMessage":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.data.JEECMS-Auth-Token":"token"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -138,11 +168,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"tokenKey":"get"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getToken</t>
+    <t>/cmsadmin/content/model/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cmsadmin/channel/content/common/tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"permOut":"false","operator":"","siteId":"","name":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.data[0].children[0].id":"caijingid"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"JEECMS-Auth-Token":"$&lt;token&gt;"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"channelId":"$&lt;caijingid&gt;"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,33 +196,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/account/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>{"$.data.userKey":"token"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"appId":"6013","password":"Jq+wjeuzTVBCAaFI/R7vVA==","methodName":"login","userKey":"$&lt;token&gt;","timestamp":"Sat, 11 Jul 2020 00:56:10 GMT"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"$.meta.msg":"issued tokenKey success"}</t>
+    <t>getTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCaijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":"200"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":"200"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":"200","$.data[0].children[0].name":"财经1"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,14 +233,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -225,11 +253,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -237,14 +264,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,41 +560,42 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C2">
@@ -574,98 +604,124 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{920DB4E2-1863-4FD7-87AE-767EF30D8E04}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFB6A06-E728-4CD8-95CC-1D273CEB2F72}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="146.109375" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" customWidth="1"/>
+    <col min="6" max="6" width="45.109375" customWidth="1"/>
+    <col min="7" max="7" width="87.6640625" customWidth="1"/>
+    <col min="8" max="8" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -677,10 +733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -697,38 +753,50 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
